--- a/INTLINE/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors_historical.xlsx
+++ b/INTLINE/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP2"/>
+  <dimension ref="A1:CQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,6 +832,11 @@
           <t>2021-Q4</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1115,6 +1120,9 @@
       </c>
       <c r="CP2" t="n">
         <v>107.3</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>108.8</v>
       </c>
     </row>
   </sheetData>
